--- a/biology/Botanique/Calystegia/Calystegia.xlsx
+++ b/biology/Botanique/Calystegia/Calystegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calystegia est un genre de plantes herbacées annuelles ou vivaces de la famille des Convolvulaceae. Ces plantes ressemblent beaucoup à leurs cousines du genre Convolvulus, avec lesquelles elles partagent le nom vernaculaire de liserons.
 Plusieurs espèces sont des adventices des cultures (mauvaises herbes) qui peuvent étouffer les autres plantes sur lesquelles elles croissent, principalement sur les sols labourés (le labour provoquant du bouturage et créant des conditions très favorables). Certaines sont cultivées pour leur jolies fleurs en forme d'entonnoir.
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Calystegia provient du grec kalyx, « calice », et stegos, « abri », du verbe stegô, « recouvrir », par allusion aux larges bractées entourant le calice[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Calystegia provient du grec kalyx, « calice », et stegos, « abri », du verbe stegô, « recouvrir », par allusion aux larges bractées entourant le calice.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont réniformes et vert foncé. Les fleurs sont soit blanches, soit roses ou mauves avec cinq rayures blanches.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe environ 25 espèces du genre Calystegia, réparties un peu partout à travers le monde.
 Calystegia affinis
